--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H2">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I2">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J2">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>28.49545600218611</v>
+        <v>362.647696519296</v>
       </c>
       <c r="R2">
-        <v>28.49545600218611</v>
+        <v>3263.829268673664</v>
       </c>
       <c r="S2">
-        <v>0.005058490727818724</v>
+        <v>0.04049616176571932</v>
       </c>
       <c r="T2">
-        <v>0.005058490727818724</v>
+        <v>0.04049616176571932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H3">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I3">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J3">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>82.87646212009959</v>
+        <v>364.3466197879636</v>
       </c>
       <c r="R3">
-        <v>82.87646212009959</v>
+        <v>3279.119578091672</v>
       </c>
       <c r="S3">
-        <v>0.01471216376241816</v>
+        <v>0.04068587721731559</v>
       </c>
       <c r="T3">
-        <v>0.01471216376241816</v>
+        <v>0.04068587721731559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H4">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I4">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J4">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>3.676196062272663</v>
+        <v>17.49584516913756</v>
       </c>
       <c r="R4">
-        <v>3.676196062272663</v>
+        <v>157.462606522238</v>
       </c>
       <c r="S4">
-        <v>0.0006525954065526563</v>
+        <v>0.001953726944904706</v>
       </c>
       <c r="T4">
-        <v>0.0006525954065526563</v>
+        <v>0.001953726944904706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H5">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I5">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J5">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>1264.417136094532</v>
+        <v>3699.89441606016</v>
       </c>
       <c r="R5">
-        <v>1264.417136094532</v>
+        <v>33299.04974454144</v>
       </c>
       <c r="S5">
-        <v>0.2244583262165941</v>
+        <v>0.4131600013647999</v>
       </c>
       <c r="T5">
-        <v>0.2244583262165941</v>
+        <v>0.4131600013647998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H6">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I6">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J6">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>3677.443129020429</v>
+        <v>3717.227593067458</v>
       </c>
       <c r="R6">
-        <v>3677.443129020429</v>
+        <v>33455.04833760712</v>
       </c>
       <c r="S6">
-        <v>0.6528167848517107</v>
+        <v>0.4150955634729794</v>
       </c>
       <c r="T6">
-        <v>0.6528167848517107</v>
+        <v>0.4150955634729794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H7">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I7">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J7">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>163.1223341863416</v>
+        <v>178.5004577909978</v>
       </c>
       <c r="R7">
-        <v>163.1223341863416</v>
+        <v>1606.50412011898</v>
       </c>
       <c r="S7">
-        <v>0.0289573472668222</v>
+        <v>0.01993279836971079</v>
       </c>
       <c r="T7">
-        <v>0.0289573472668222</v>
+        <v>0.01993279836971079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H8">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I8">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J8">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N8">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O8">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P8">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q8">
-        <v>102.333323523474</v>
+        <v>299.571984422208</v>
       </c>
       <c r="R8">
-        <v>102.333323523474</v>
+        <v>2696.147859799872</v>
       </c>
       <c r="S8">
-        <v>0.01816613035252546</v>
+        <v>0.03345261987895677</v>
       </c>
       <c r="T8">
-        <v>0.01816613035252546</v>
+        <v>0.03345261987895676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H9">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I9">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J9">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N9">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q9">
-        <v>297.6272360746374</v>
+        <v>300.975412101084</v>
       </c>
       <c r="R9">
-        <v>297.6272360746374</v>
+        <v>2708.778708909756</v>
       </c>
       <c r="S9">
-        <v>0.052834550670618</v>
+        <v>0.03360933791372091</v>
       </c>
       <c r="T9">
-        <v>0.052834550670618</v>
+        <v>0.03360933791372091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H10">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I10">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J10">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N10">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q10">
-        <v>13.20201231197734</v>
+        <v>14.452773605811</v>
       </c>
       <c r="R10">
-        <v>13.20201231197734</v>
+        <v>130.074962452299</v>
       </c>
       <c r="S10">
-        <v>0.002343610744939917</v>
+        <v>0.001613913071892623</v>
       </c>
       <c r="T10">
-        <v>0.002343610744939917</v>
+        <v>0.001613913071892623</v>
       </c>
     </row>
   </sheetData>
